--- a/bots/crawl_ch/output/bread_coop_2022-12-16.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-12-16.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Ölz Super Soft Sandwich 4.10 Schweizer Franken</t>
+          <t>Ölz Super Soft Sandwich - Online kein Bestand 4.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -1859,13 +1859,13 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Frischback Butterzopf 3.80 Schweizer Franken</t>
+          <t>Frischback Butterzopf - Online kein Bestand 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -3918,7 +3918,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -5285,7 +5285,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -5500,7 +5500,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -6068,7 +6068,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Betty Bossi Butterblätterteig eckig ausgewallt 25x42cm 3.70 Schweizer Franken</t>
+          <t>Betty Bossi Butterblätterteig eckig ausgewallt 25x42cm - Online kein Bestand 3.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -6352,7 +6352,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -6425,7 +6425,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -6494,7 +6494,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -6632,7 +6632,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -6701,7 +6701,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -6920,7 +6920,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -7208,7 +7208,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -7277,7 +7277,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -7703,7 +7703,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7776,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -7845,7 +7845,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -7910,7 +7910,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -8334,13 +8334,13 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Mini Panettone - Online kein Bestand 20% pro 3 Aktion 1.60 Schweizer Franken</t>
+          <t>Mini Panettone 20% pro 3 Aktion 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -8478,7 +8478,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -8547,7 +8547,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -8620,7 +8620,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -8693,7 +8693,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8766,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -8835,7 +8835,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -8908,7 +8908,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -8977,7 +8977,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -9119,7 +9119,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -9188,7 +9188,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -9407,7 +9407,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -9476,7 +9476,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -9545,7 +9545,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -9618,7 +9618,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -9760,7 +9760,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -9833,7 +9833,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -9902,7 +9902,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -9971,7 +9971,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -10044,7 +10044,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -10113,7 +10113,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -10182,7 +10182,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -10255,7 +10255,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -10328,7 +10328,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -10401,7 +10401,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -10470,7 +10470,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -10539,45 +10539,45 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>3041956</t>
+          <t>5646435</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Linzertorte</t>
+          <t>Leisi Blätterteig eckig ausgewallt 25x42cm</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/linzertorte/p/3041956</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-eckig-ausgewallt-25x42cm/p/5646435</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="E143" t="n">
         <v>4.5</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>0.82/100g</t>
+          <t>0.96/100g</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10587,7 +10587,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -10597,56 +10597,60 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Linzertorte 3.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N143" t="inlineStr"/>
+          <t>Leisi Blätterteig eckig ausgewallt 25x42cm 5.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>5646435</t>
+          <t>3617030</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig eckig ausgewallt 25x42cm</t>
+          <t>Fine Food Knäckebrot 3-Saaten</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-eckig-ausgewallt-25x42cm/p/5646435</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-3-saaten/p/3617030</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E144" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>0.96/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -10656,7 +10660,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -10666,46 +10670,46 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig eckig ausgewallt 25x42cm 5.30 Schweizer Franken</t>
+          <t>Fine Food Knäckebrot 3-Saaten 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>3617030</t>
+          <t>6638578</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot 3-Saaten</t>
+          <t>Prix Garantie Pains au chocolat 8 Stück</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-3-saaten/p/3617030</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-pains-au-chocolat-8-stueck/p/6638578</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="E145" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -10714,12 +10718,12 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>0.72/100g</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10729,7 +10733,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -10739,46 +10743,42 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot 3-Saaten 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Pains au chocolat 8 Stück 2.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>6638578</t>
+          <t>6668458</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Prix Garantie Pains au chocolat 8 Stück</t>
+          <t>Betty Bossi Kuchenteig ausgewallt</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-pains-au-chocolat-8-stueck/p/6638578</t>
+          <t>/de/inspiration-geschenke/ernaehrung/vegan/brot-backwaren/betty-bossi-kuchenteig-ausgewallt/p/6668458</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -10787,12 +10787,12 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>0.72/100g</t>
+          <t>0.61/100g</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10802,7 +10802,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -10812,42 +10812,46 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['inspiration-geschenke', 'ernaehrung', 'vegan', 'brot-backwaren']</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>Prix Garantie Pains au chocolat 8 Stück 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N146" t="inlineStr"/>
+          <t>Betty Bossi Kuchenteig ausgewallt 1.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>6668458</t>
+          <t>3041956</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig ausgewallt</t>
+          <t>Linzertorte</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/ernaehrung/vegan/brot-backwaren/betty-bossi-kuchenteig-ausgewallt/p/6668458</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/linzertorte/p/3041956</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -10856,12 +10860,12 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>0.61/100g</t>
+          <t>0.82/100g</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10871,7 +10875,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -10881,22 +10885,18 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'ernaehrung', 'vegan', 'brot-backwaren']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig ausgewallt 1.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Linzertorte 3.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -10965,7 +10965,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -11107,7 +11107,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -11180,7 +11180,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -11318,7 +11318,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -11387,7 +11387,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -11456,7 +11456,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -11529,7 +11529,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -11602,7 +11602,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -11675,7 +11675,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -11748,7 +11748,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -11817,7 +11817,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -11963,7 +11963,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -12032,7 +12032,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -12101,7 +12101,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -12170,7 +12170,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -12241,7 +12241,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -12314,7 +12314,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -12383,7 +12383,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -12456,7 +12456,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -12525,7 +12525,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -12598,7 +12598,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -12667,7 +12667,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -12740,7 +12740,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -12878,7 +12878,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -12951,7 +12951,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -13024,7 +13024,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -13097,7 +13097,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -13170,7 +13170,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -13239,7 +13239,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -13302,7 +13302,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Panino rustico IP-Suisse 3.40 Schweizer Franken</t>
+          <t>Betty Bossi Frischback Panino rustico IP-Suisse - Online kein Bestand 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
@@ -13312,7 +13312,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -13385,7 +13385,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -13458,45 +13458,45 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>6825720</t>
+          <t>3410121</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggenvollkornbrot</t>
+          <t>Kirsprolls Vollkorn-Schwedenbrötchen</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/prix-garantie-roggenvollkornbrot/p/6825720</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/kirsprolls-vollkorn-schwedenbroetchen/p/3410121</t>
         </is>
       </c>
       <c r="D184" t="n">
+        <v>19</v>
+      </c>
+      <c r="E184" t="n">
         <v>5</v>
       </c>
-      <c r="E184" t="n">
-        <v>4</v>
-      </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Krisprolls</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>0.36/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13516,56 +13516,60 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggenvollkornbrot 1.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N184" t="inlineStr"/>
+          <t>Kirsprolls Vollkorn-Schwedenbrötchen 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>3410121</t>
+          <t>6825720</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Kirsprolls Vollkorn-Schwedenbrötchen</t>
+          <t>Prix Garantie Roggenvollkornbrot</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/kirsprolls-vollkorn-schwedenbroetchen/p/3410121</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/prix-garantie-roggenvollkornbrot/p/6825720</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E185" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Krisprolls</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>0.36/100g</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13575,7 +13579,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -13585,22 +13589,18 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>Kirsprolls Vollkorn-Schwedenbrötchen 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Roggenvollkornbrot 1.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -13673,7 +13673,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -13742,7 +13742,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -13811,7 +13811,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -13880,7 +13880,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -13953,45 +13953,45 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>3023036</t>
+          <t>3041124</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Old El Paso Taco-Schalen 12 Stück</t>
+          <t>Naturaplan Bio Sonnenblumenbrot</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-taco-schalen-12-stueck/p/3023036</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/naturaplan-bio-sonnenblumenbrot/p/3041124</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E191" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2.50/100g</t>
+          <t>0.59/100g</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -14001,7 +14001,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -14011,56 +14011,60 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>Old El Paso Taco-Schalen 12 Stück 3.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N191" t="inlineStr"/>
+          <t>Naturaplan Bio Sonnenblumenbrot 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>6323456</t>
+          <t>3023036</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Prix Garantie Croissants 6 Stück</t>
+          <t>Old El Paso Taco-Schalen 12 Stück</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-croissants-6-stueck/p/6323456</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-taco-schalen-12-stueck/p/3023036</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E192" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>0.81/100g</t>
+          <t>2.50/100g</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -14070,7 +14074,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -14080,42 +14084,42 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>Prix Garantie Croissants 6 Stück 1.95 Schweizer Franken</t>
+          <t>Old El Paso Taco-Schalen 12 Stück 3.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>4338613</t>
+          <t>6323456</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>JaMaDu Fairtrade Reiswaffeln mit Honig</t>
+          <t>Prix Garantie Croissants 6 Stück</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/jamadu-fairtrade-reiswaffeln-mit-honig/p/4338613</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-croissants-6-stueck/p/6323456</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E193" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -14129,7 +14133,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>3.25/100g</t>
+          <t>0.81/100g</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -14139,7 +14143,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -14149,43 +14153,39 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>JaMaDu Fairtrade Reiswaffeln mit Honig 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N193" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Croissants 6 Stück 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>3041124</t>
+          <t>4338613</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Sonnenblumenbrot</t>
+          <t>JaMaDu Fairtrade Reiswaffeln mit Honig</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/naturaplan-bio-sonnenblumenbrot/p/3041124</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/jamadu-fairtrade-reiswaffeln-mit-honig/p/4338613</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E194" t="n">
         <v>4.5</v>
@@ -14197,12 +14197,12 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>0.59/100g</t>
+          <t>3.25/100g</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -14212,7 +14212,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14222,22 +14222,22 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Sonnenblumenbrot 2.95 Schweizer Franken</t>
+          <t>JaMaDu Fairtrade Reiswaffeln mit Honig 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -14306,7 +14306,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -14375,7 +14375,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -14448,7 +14448,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -14517,7 +14517,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -14590,7 +14590,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -14659,7 +14659,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -14732,7 +14732,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -14801,7 +14801,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -14870,7 +14870,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -14943,7 +14943,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -15012,7 +15012,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -15085,7 +15085,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -15154,7 +15154,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -15227,7 +15227,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -15300,7 +15300,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -15369,7 +15369,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -15442,7 +15442,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -15511,7 +15511,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -15584,7 +15584,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -15657,7 +15657,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -15730,7 +15730,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -15803,7 +15803,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -15876,45 +15876,45 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>4886676</t>
+          <t>6564543</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Leinsamen</t>
+          <t>Country Cracker Käse</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-leinsamen/p/4886676</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E218" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -15934,56 +15934,56 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Leinsamen 3.80 Schweizer Franken</t>
+          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>6564543</t>
+          <t>4886676</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Country Cracker Käse</t>
+          <t>Dar-Vida Cracker Leinsamen</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-leinsamen/p/4886676</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E219" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -15993,7 +15993,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -16003,56 +16003,56 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Leinsamen 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>4145489</t>
+          <t>6877241</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Betty Bossi Marmor-Guetzliteig</t>
+          <t>Mais Tortillas</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-marmor-guetzliteig/p/4145489</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mais-tortillas/p/6877241</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E220" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>MASAMOR</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>0.84/100g</t>
+          <t>2.38/100g</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -16062,7 +16062,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -16072,60 +16072,60 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>Betty Bossi Marmor-Guetzliteig - Online kein Bestand 4.20 Schweizer Franken</t>
+          <t>Mais Tortillas 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>3431131</t>
+          <t>3734986</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Betty Bossi Spitzbube 2x  80g</t>
+          <t>Mulino Bianco 5-Kornbrot mit Soja</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-spitzbube/p/3431131</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-5-kornbrot-mit-soja/p/3734986</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E221" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>0.60/100g</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16135,7 +16135,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -16145,56 +16145,56 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>Betty Bossi Spitzbube 2x  80g 4.40 Schweizer Franken</t>
+          <t>Mulino Bianco 5-Kornbrot mit Soja 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>6877241</t>
+          <t>4145489</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Mais Tortillas</t>
+          <t>Betty Bossi Marmor-Guetzliteig</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mais-tortillas/p/6877241</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-marmor-guetzliteig/p/4145489</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E222" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>MASAMOR</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2.38/100g</t>
+          <t>0.84/100g</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16204,7 +16204,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -16214,60 +16214,60 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>Mais Tortillas 5.95 Schweizer Franken</t>
+          <t>Betty Bossi Marmor-Guetzliteig - Online kein Bestand 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>3734986</t>
+          <t>3431131</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Mulino Bianco 5-Kornbrot mit Soja</t>
+          <t>Betty Bossi Spitzbube 2x  80g</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-5-kornbrot-mit-soja/p/3734986</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-spitzbube/p/3431131</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E223" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>0.60/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -16277,7 +16277,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -16287,18 +16287,18 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>Mulino Bianco 5-Kornbrot mit Soja 2.40 Schweizer Franken</t>
+          <t>Betty Bossi Spitzbube 2x  80g 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -16367,7 +16367,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -16440,7 +16440,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -16513,7 +16513,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -16586,7 +16586,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -16659,7 +16659,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -16728,7 +16728,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -16801,7 +16801,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -16870,7 +16870,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -17012,7 +17012,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -17081,7 +17081,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -17154,7 +17154,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -17223,7 +17223,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -17292,7 +17292,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -17361,7 +17361,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -17430,7 +17430,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -17499,7 +17499,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -17572,7 +17572,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -17641,7 +17641,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -17710,7 +17710,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -17777,7 +17777,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -17850,7 +17850,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -17923,7 +17923,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -17992,45 +17992,45 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>6628849</t>
+          <t>3041946</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Betty Bossi Grossmutters Schoggi Cake</t>
+          <t>Roland Knäckebrot Exquis Sesam</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-grossmutters-schoggi-cake/p/6628849</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-exquis-sesam/p/3041946</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E248" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>1.25/100g</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -18050,56 +18050,60 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>Betty Bossi Grossmutters Schoggi Cake 2.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N248" t="inlineStr"/>
+          <t>Roland Knäckebrot Exquis Sesam 2.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>3041946</t>
+          <t>6628849</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Exquis Sesam</t>
+          <t>Betty Bossi Grossmutters Schoggi Cake</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-exquis-sesam/p/3041946</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-grossmutters-schoggi-cake/p/6628849</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E249" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>1.25/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18109,7 +18113,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18119,22 +18123,18 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Exquis Sesam 2.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N249" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Grossmutters Schoggi Cake 2.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -18203,7 +18203,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -18345,7 +18345,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -18414,7 +18414,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -18487,7 +18487,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -18560,7 +18560,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -18629,33 +18629,35 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>6962218</t>
+          <t>3804246</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Classic</t>
+          <t>Schär Frischback Ciabatta glutenfrei</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-classic/p/6962218</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-ciabatta-glutenfrei/p/3804246</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>18</v>
+      </c>
       <c r="E257" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -18665,7 +18667,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>1.63/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18675,7 +18677,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -18685,46 +18687,48 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Classic 3.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N257" t="inlineStr"/>
+          <t>Schär Frischback Ciabatta glutenfrei 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>3804246</t>
+          <t>6962218</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Schär Frischback Ciabatta glutenfrei</t>
+          <t>Old el Paso Wraps Classic</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-ciabatta-glutenfrei/p/3804246</t>
-        </is>
-      </c>
-      <c r="D258" t="n">
-        <v>18</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-classic/p/6962218</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr"/>
       <c r="E258" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -18734,7 +18738,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>1.63/100g</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18744,7 +18748,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -18754,22 +18758,18 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>Schär Frischback Ciabatta glutenfrei 3.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N258" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Old el Paso Wraps Classic 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -18838,7 +18838,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -18907,7 +18907,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -18976,7 +18976,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -19045,7 +19045,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -19114,7 +19114,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -19187,7 +19187,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -19256,7 +19256,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -19329,7 +19329,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -19398,31 +19398,29 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>6989304</t>
+          <t>6986883</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Randen</t>
+          <t>Betty Bossi Strudelteig</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-randen/p/6989304</t>
-        </is>
-      </c>
-      <c r="D268" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-strudelteig/p/6986883</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr"/>
       <c r="E268" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -19431,12 +19429,12 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2.46/100g</t>
+          <t>2.08/100g</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19446,7 +19444,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -19456,40 +19454,46 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Randen 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N268" t="inlineStr"/>
+          <t>Betty Bossi Strudelteig 2.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>6986883</t>
+          <t>6605568</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Betty Bossi Strudelteig</t>
+          <t>Prix Garantie Mini Muffins Choco</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-strudelteig/p/6986883</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-mini-muffins-choco/p/6605568</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>2</v>
+      </c>
       <c r="E269" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -19498,12 +19502,12 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2.08/100g</t>
+          <t>1.20/100g</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19513,7 +19517,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -19523,60 +19527,56 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>Betty Bossi Strudelteig 2.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N269" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Mini Muffins Choco - Online kein Bestand 2.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>6605568</t>
+          <t>6869974</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Muffins Choco</t>
+          <t>Roland Knäckers Sesam &amp;amp; Chia</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-mini-muffins-choco/p/6605568</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-sesam-chia/p/6869974</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E270" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>1.20/100g</t>
+          <t>2.11/100g</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19586,7 +19586,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -19596,56 +19596,58 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Muffins Choco - Online kein Bestand 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N270" t="inlineStr"/>
+          <t>Roland Knäckers Sesam &amp;amp; Chia 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>6869974</t>
+          <t>6832049</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Roland Knäckers Sesam &amp;amp; Chia</t>
+          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-sesam-chia/p/6869974</t>
-        </is>
-      </c>
-      <c r="D271" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt-erdbeeren/p/6832049</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr"/>
       <c r="E271" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2.11/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19655,7 +19657,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -19665,44 +19667,46 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>Roland Knäckers Sesam &amp;amp; Chia 2.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren - Online kein Bestand 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>6832049</t>
+          <t>6989304</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren</t>
+          <t>JaMaDu Jungle Cracker Randen</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt-erdbeeren/p/6832049</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-randen/p/6989304</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>1</v>
+      </c>
       <c r="E272" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -19711,12 +19715,12 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>2.46/100g</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19726,7 +19730,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -19736,22 +19740,18 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren - Online kein Bestand 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N272" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>JaMaDu Jungle Cracker Randen 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -19824,7 +19824,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -19893,45 +19893,45 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>6424899</t>
+          <t>6723241</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Prix Garantie Aprikosen Tartelettes</t>
+          <t>Old el Paso Tortilla XL Glutenfree 4 Stück</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-aprikosen-tartelettes/p/6424899</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-xl-glutenfree-4-stueck/p/6723241</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>3.02/100g</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -19941,7 +19941,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -19951,56 +19951,60 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>Prix Garantie Aprikosen Tartelettes 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N275" t="inlineStr"/>
+          <t>Old el Paso Tortilla XL Glutenfree 4 Stück 6.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>['vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>3909255</t>
+          <t>6424899</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei</t>
+          <t>Prix Garantie Aprikosen Tartelettes</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-aprikosen-tartelettes/p/6424899</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E276" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>1.80/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20010,7 +20014,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -20020,60 +20024,56 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N276" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Aprikosen Tartelettes 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>6723241</t>
+          <t>3909255</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla XL Glutenfree 4 Stück</t>
+          <t>Schär Knusperbrot glutenfrei</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-xl-glutenfree-4-stueck/p/6723241</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E277" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>3.02/100g</t>
+          <t>1.80/100g</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -20083,7 +20083,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -20093,22 +20093,22 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla XL Glutenfree 4 Stück 6.50 Schweizer Franken</t>
+          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>['vegetarian', 'gluten_free']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -20177,7 +20177,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -20250,7 +20250,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -20319,7 +20319,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -20392,7 +20392,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -20465,145 +20465,145 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>3040971</t>
+          <t>4314837</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Panettone</t>
+          <t>Kale Dürüm 30cm 18 Stück</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone/p/3040971</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E283" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Kale</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>1.39/100g</t>
+          <t>4.39/1kg</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>Panettone 6.95 Schweizer Franken</t>
+          <t>Kale Dürüm 30cm 18 Stück 7.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>4314837</t>
+          <t>3040971</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück</t>
+          <t>Panettone</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone/p/3040971</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E284" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Kale</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>4.39/1kg</t>
+          <t>1.39/100g</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück 7.50 Schweizer Franken</t>
+          <t>Panettone 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -20676,45 +20676,45 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>6350020</t>
+          <t>6345662</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat</t>
+          <t>Indian Delight Mini Naans bread nature</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E286" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>1.85/100g</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20724,7 +20724,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -20734,12 +20734,12 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
+          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N286" t="inlineStr">
@@ -20749,45 +20749,45 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>6345662</t>
+          <t>6350020</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature</t>
+          <t>Karma Mini Cracker Sesam Leinsaat</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E287" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>1.85/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -20797,7 +20797,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -20807,12 +20807,12 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
+          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N287" t="inlineStr">
@@ -20822,7 +20822,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -20895,7 +20895,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -20968,7 +20968,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -21035,45 +21035,45 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>5661142</t>
+          <t>6345667</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa</t>
+          <t>Indian Delight Plain Naan Bread</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-crunch-it-cracker-dinkel-quinoa/p/5661142</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-plain-naan-bread/p/6345667</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E291" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>2.68/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21083,7 +21083,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -21093,12 +21093,12 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa 2.95 Schweizer Franken</t>
+          <t>Indian Delight Plain Naan Bread 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N291" t="inlineStr">
@@ -21108,45 +21108,45 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>6345667</t>
+          <t>5661142</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Indian Delight Plain Naan Bread</t>
+          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-plain-naan-bread/p/6345667</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-crunch-it-cracker-dinkel-quinoa/p/5661142</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E292" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>2.68/100g</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21166,12 +21166,12 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>Indian Delight Plain Naan Bread 4.60 Schweizer Franken</t>
+          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N292" t="inlineStr">
@@ -21181,7 +21181,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -21250,7 +21250,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -21319,7 +21319,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -21388,7 +21388,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -21457,7 +21457,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -21530,7 +21530,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -21603,7 +21603,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -21676,7 +21676,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -21749,45 +21749,45 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>6738706</t>
+          <t>6726288</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Dar-Vida extra fin Mais Taco</t>
+          <t>Karma Snack Linsen &amp;amp; Kichererbsen</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-extra-fin-mais-taco/p/6738706</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/karma-snack-linsen-kichererbsen/p/6726288</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E301" t="n">
         <v>4.5</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>2.79/100g</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -21797,7 +21797,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -21812,51 +21812,55 @@
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>Dar-Vida extra fin Mais Taco 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N301" t="inlineStr"/>
+          <t>Karma Snack Linsen &amp;amp; Kichererbsen 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>6726288</t>
+          <t>6738706</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Karma Snack Linsen &amp;amp; Kichererbsen</t>
+          <t>Dar-Vida extra fin Mais Taco</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/karma-snack-linsen-kichererbsen/p/6726288</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-extra-fin-mais-taco/p/6738706</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E302" t="n">
         <v>4.5</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>2.79/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -21866,7 +21870,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -21881,17 +21885,13 @@
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>Karma Snack Linsen &amp;amp; Kichererbsen 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N302" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Dar-Vida extra fin Mais Taco 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -21964,7 +21964,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -22037,7 +22037,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -22110,7 +22110,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -22179,7 +22179,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -22248,7 +22248,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -22317,7 +22317,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -22390,45 +22390,45 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>4967195</t>
+          <t>4145231</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Bonne Maman Financier Mandeln</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-financier-mandeln/p/4967195</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E310" t="n">
         <v>4.5</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>3.14/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22438,7 +22438,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -22448,56 +22448,60 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>Bonne Maman Financier Mandeln 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N310" t="inlineStr"/>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>4145231</t>
+          <t>4967195</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
+          <t>Bonne Maman Financier Mandeln</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-financier-mandeln/p/4967195</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E311" t="n">
         <v>4.5</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>3.14/100g</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22507,7 +22511,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -22517,22 +22521,18 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N311" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Bonne Maman Financier Mandeln 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -22605,7 +22605,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -22674,7 +22674,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -22743,7 +22743,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -22816,7 +22816,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -22885,7 +22885,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -22954,7 +22954,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -23027,7 +23027,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -23096,7 +23096,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -23165,7 +23165,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -23238,45 +23238,45 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>6338743</t>
+          <t>7059921</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Country Cracker Honig</t>
+          <t>Roland Knäckebrot Linsen-Protein</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E322" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>1.54/100g</t>
+          <t>2.19/100g</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23286,7 +23286,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -23296,56 +23296,60 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>Country Cracker Honig 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N322" t="inlineStr"/>
+          <t>Roland Knäckebrot Linsen-Protein 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>7059921</t>
+          <t>6338743</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein</t>
+          <t>Country Cracker Honig</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E323" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>2.19/100g</t>
+          <t>1.54/100g</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23355,7 +23359,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -23365,39 +23369,35 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N323" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Country Cracker Honig 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>6668612</t>
+          <t>3446126</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block</t>
+          <t>Old El Paso Enchilada Kit</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
         </is>
       </c>
       <c r="D324" t="n">
@@ -23408,17 +23408,17 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>0.35/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23428,7 +23428,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -23438,39 +23438,35 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N324" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Old El Paso Enchilada Kit 7.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>3446126</t>
+          <t>6668612</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit</t>
+          <t>Prix Garantie Kuchenteig Block</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
         </is>
       </c>
       <c r="D325" t="n">
@@ -23481,17 +23477,17 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>0.35/100g</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23501,7 +23497,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -23511,18 +23507,22 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N325" t="inlineStr"/>
+          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -23589,7 +23589,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -23658,31 +23658,31 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>6828661</t>
+          <t>5653528</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Birnenweggli</t>
+          <t>Betty Bossi Tortenboden hell</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/birnenweggli/p/6828661</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E328" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -23691,12 +23691,12 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.16/100g</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23706,7 +23706,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -23716,56 +23716,60 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>Birnenweggli 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N328" t="inlineStr"/>
+          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>5653528</t>
+          <t>7069611</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell</t>
+          <t>Cocktail Blinis 20 Stück</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/cocktail-blinis-20-stueck/p/7069611</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Blini</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>1.16/100g</t>
+          <t>3.54/100g</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -23775,7 +23779,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -23785,12 +23789,12 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
+          <t>Cocktail Blinis 20 Stück 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N329" t="inlineStr">
@@ -23800,45 +23804,45 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>7069611</t>
+          <t>6630295</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Cocktail Blinis 20 Stück</t>
+          <t>Country Cracker Banane-Choco</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/cocktail-blinis-20-stueck/p/7069611</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E330" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Blini</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>3.54/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -23848,7 +23852,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -23858,39 +23862,35 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>Cocktail Blinis 20 Stück 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N330" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Country Cracker Banane-Choco 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>6630295</t>
+          <t>5910015</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco</t>
+          <t>Country Cracker Sesam</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
         </is>
       </c>
       <c r="D331" t="n">
@@ -23906,12 +23906,12 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>1.45/100g</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -23921,7 +23921,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -23931,56 +23931,56 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco 3.60 Schweizer Franken</t>
+          <t>Country Cracker Sesam 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>5910015</t>
+          <t>4063481</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
         </is>
       </c>
       <c r="D332" t="n">
+        <v>1</v>
+      </c>
+      <c r="E332" t="n">
         <v>4</v>
       </c>
-      <c r="E332" t="n">
-        <v>5</v>
-      </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>1.45/100g</t>
+          <t>2.63/100g</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -23990,7 +23990,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -24000,56 +24000,56 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam 3.30 Schweizer Franken</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>4063481</t>
+          <t>7036109</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
+          <t>Quicook Kuchenteig</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
+          <t>/de/inspiration-geschenke/ernaehrung/vegan/brot-backwaren/quicook-kuchenteig/p/7036109</t>
         </is>
       </c>
       <c r="D333" t="n">
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Eclair</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>2.63/100g</t>
+          <t>1.71/100g</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -24059,7 +24059,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -24069,56 +24069,60 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['inspiration-geschenke', 'ernaehrung', 'vegan', 'brot-backwaren']</t>
         </is>
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N333" t="inlineStr"/>
+          <t>Quicook Kuchenteig 2.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>7036109</t>
+          <t>6828661</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Quicook Kuchenteig</t>
+          <t>Birnenweggli</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/ernaehrung/vegan/brot-backwaren/quicook-kuchenteig/p/7036109</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/birnenweggli/p/6828661</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E334" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Eclair</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>1.71/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -24128,7 +24132,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -24138,22 +24142,18 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'ernaehrung', 'vegan', 'brot-backwaren']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>Quicook Kuchenteig 2.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N334" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Birnenweggli 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -24216,13 +24216,13 @@
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>Pandorino - Online kein Bestand 20% pro 3 Aktion 1.60 Schweizer Franken</t>
+          <t>Pandorino 20% pro 3 Aktion 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -24291,45 +24291,45 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>6387361</t>
+          <t>6581130</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis</t>
+          <t>Dona Pita Brot</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E337" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Dona</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>2.44/100g</t>
+          <t>0.57/100g</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24339,7 +24339,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -24349,60 +24349,56 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N337" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>6581130</t>
+          <t>6387361</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Dona Pita Brot</t>
+          <t>Karma Snack Schwarzer Reis</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E338" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Dona</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>0.57/100g</t>
+          <t>2.44/100g</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24412,7 +24408,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -24422,18 +24418,22 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N338" t="inlineStr"/>
+          <t>Karma Snack Schwarzer Reis 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -24502,7 +24502,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -24571,7 +24571,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -24640,7 +24640,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -24709,45 +24709,45 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>6869975</t>
+          <t>3040820</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature</t>
+          <t>Panettone Nostrano</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone-nostrano/p/3040820</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E343" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>2.11/100g</t>
+          <t>1.39/100g</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -24757,7 +24757,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -24767,60 +24767,56 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N343" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Panettone Nostrano 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>7028474</t>
+          <t>6869975</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa</t>
+          <t>Roland Knäckers Nature</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
         </is>
       </c>
       <c r="D344" t="n">
         <v>1</v>
       </c>
       <c r="E344" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>2.93/100g</t>
+          <t>2.11/100g</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -24830,7 +24826,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -24840,39 +24836,39 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa 4.40 Schweizer Franken</t>
+          <t>Roland Knäckers Nature 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>6967945</t>
+          <t>7028474</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>St. Michel Dooomino au chocolat</t>
+          <t>Le Pain des fleurs Bio Quinoa</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-dooomino-au-chocolat/p/6967945</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
         </is>
       </c>
       <c r="D345" t="n">
@@ -24883,17 +24879,17 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>2.93/100g</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -24903,7 +24899,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -24913,56 +24909,60 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>St. Michel Dooomino au chocolat 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N345" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Quinoa 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>3040820</t>
+          <t>6967945</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Panettone Nostrano</t>
+          <t>St. Michel Dooomino au chocolat</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone-nostrano/p/3040820</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-dooomino-au-chocolat/p/6967945</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E346" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>1.39/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -24972,7 +24972,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -24982,18 +24982,18 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>Panettone Nostrano 6.95 Schweizer Franken</t>
+          <t>St. Michel Dooomino au chocolat 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -25062,7 +25062,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -25131,31 +25131,31 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>6877281</t>
+          <t>6659615</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Nussweggli</t>
+          <t>Country Cracker Karotte</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E349" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -25164,12 +25164,12 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25179,7 +25179,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -25189,56 +25189,56 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>Nussweggli 4.95 Schweizer Franken</t>
+          <t>Country Cracker Karotte 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>6659615</t>
+          <t>6680943</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte</t>
+          <t>Pasquier Pancakes Choco 10 Stück</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E350" t="n">
         <v>5</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25248,7 +25248,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -25258,56 +25258,56 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte 3.60 Schweizer Franken</t>
+          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>6680943</t>
+          <t>6967944</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück</t>
+          <t>St. Michel Galettes Mou Choco Blanc</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E351" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25317,7 +25317,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -25327,56 +25327,56 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
+          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>6967944</t>
+          <t>3845685</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc</t>
+          <t>Slow Food Roggenbrot</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E352" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25386,7 +25386,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -25396,56 +25396,56 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
+          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>7014628</t>
+          <t>6314192</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Dar-Vida Rustico Roggen-Quinoa</t>
+          <t>Sapori Panettoncino Schokocrème</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-rustico-roggen-quinoa/p/7014628</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/sapori-panettoncino-schokocreme/p/6314192</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E353" t="n">
         <v>5</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>4.94/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25455,7 +25455,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -25465,56 +25465,56 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>Dar-Vida Rustico Roggen-Quinoa 3.95 Schweizer Franken</t>
+          <t>Sapori Panettoncino Schokocrème 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>3845685</t>
+          <t>3570059</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot</t>
+          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="E354" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Croustipâte</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -25524,7 +25524,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -25534,56 +25534,60 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N354" t="inlineStr"/>
+          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>3570059</t>
+          <t>6877281</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
+          <t>Nussweggli</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E355" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Croustipâte</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25593,7 +25597,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -25603,22 +25607,18 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N355" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Nussweggli 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -25687,45 +25687,45 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>6635317</t>
+          <t>4234829</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade</t>
+          <t>Schär Wraps glutenfrei 2x80g</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E357" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>0.63/100g</t>
+          <t>3.09/100g</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -25735,7 +25735,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -25745,56 +25745,58 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade 2.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N357" t="inlineStr"/>
+          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N357" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>6314192</t>
+          <t>6135422</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Sapori Panettoncino Schokocrème</t>
+          <t>Naturaplan Bio Zwetschgen-Rollen 3x60g</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/sapori-panettoncino-schokocreme/p/6314192</t>
-        </is>
-      </c>
-      <c r="D358" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-zwetschgen-rollen-3x60g/p/6135422</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr"/>
       <c r="E358" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -25804,7 +25806,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -25814,56 +25816,56 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>Sapori Panettoncino Schokocrème 1.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Zwetschgen-Rollen 3x60g 16% Aktion 2.60 Schweizer Franken statt 3.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>4234829</t>
+          <t>6635317</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g</t>
+          <t>Prix Garantie Kakao Roulade</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>3.09/100g</t>
+          <t>0.63/100g</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -25873,7 +25875,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -25883,39 +25885,35 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N359" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Kakao Roulade 2.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>6135422</t>
+          <t>7037702</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Zwetschgen-Rollen 3x60g</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-zwetschgen-rollen-3x60g/p/6135422</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
         </is>
       </c>
       <c r="D360" t="inlineStr"/>
@@ -25924,17 +25922,17 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25944,7 +25942,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25954,54 +25952,56 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Zwetschgen-Rollen 3x60g 16% Aktion 2.60 Schweizer Franken statt 3.10 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>7037702</t>
+          <t>7014628</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
+          <t>Dar-Vida Rustico Roggen-Quinoa</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-rustico-roggen-quinoa/p/7014628</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>4</v>
+      </c>
       <c r="E361" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>4.94/100g</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26011,7 +26011,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -26021,18 +26021,18 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
+          <t>Dar-Vida Rustico Roggen-Quinoa 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -26101,7 +26101,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -26168,7 +26168,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -26237,7 +26237,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -26306,7 +26306,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -26375,7 +26375,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -26444,7 +26444,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -26513,7 +26513,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -26582,45 +26582,45 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>5962343</t>
+          <t>3465424</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
+          <t>Hug Tartelettes-Bödeli 175G</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
         </is>
       </c>
       <c r="D370" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E370" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Veganz</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>5.48/100g</t>
+          <t>2.11/100g</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26630,7 +26630,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -26640,60 +26640,56 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N370" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Hug Tartelettes-Bödeli 175G 3.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>3465424</t>
+          <t>5962343</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E371" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Veganz</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>2.11/100g</t>
+          <t>5.48/100g</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -26703,7 +26699,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -26713,18 +26709,22 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G 3.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N371" t="inlineStr"/>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N371" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -26793,7 +26793,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -26866,7 +26866,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -26933,7 +26933,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -27002,7 +27002,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -27075,7 +27075,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -27148,7 +27148,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -27217,7 +27217,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -27288,7 +27288,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -27361,7 +27361,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -27432,45 +27432,45 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>6637490</t>
+          <t>6609039</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois</t>
+          <t>Vergani Panettone vegan</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
         </is>
       </c>
       <c r="D382" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E382" t="n">
         <v>5</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Suter</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>3.55/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27480,7 +27480,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -27490,60 +27490,60 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois - Online kein Bestand 3.90 Schweizer Franken</t>
+          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>6609039</t>
+          <t>6637490</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan</t>
+          <t>Suter Pâté vaudois</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
         </is>
       </c>
       <c r="D383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E383" t="n">
         <v>5</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>Suter</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>3.55/100g</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27553,7 +27553,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -27563,22 +27563,22 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
+          <t>Suter Pâté vaudois - Online kein Bestand 3.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -27651,7 +27651,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -27722,7 +27722,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -27791,7 +27791,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -27864,7 +27864,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -27937,7 +27937,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -28004,7 +28004,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -28073,7 +28073,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -28140,7 +28140,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -28209,7 +28209,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -28278,24 +28278,24 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>7091314</t>
+          <t>6146680</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ</t>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
         </is>
       </c>
       <c r="D394" t="inlineStr"/>
@@ -28304,17 +28304,17 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Layenberger</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>2.86/100g</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28324,7 +28324,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -28334,35 +28334,39 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N394" t="inlineStr"/>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N394" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>6146680</t>
+          <t>7091314</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
+          <t>High Protein Cräcker BBQ</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
         </is>
       </c>
       <c r="D395" t="inlineStr"/>
@@ -28371,17 +28375,17 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Layenberger</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>2.86/100g</t>
+          <t>4.80/100g</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28391,7 +28395,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -28401,22 +28405,18 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N395" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -28485,7 +28485,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -28556,7 +28556,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -28625,7 +28625,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -28694,7 +28694,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -28763,7 +28763,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -28830,7 +28830,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -28897,7 +28897,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -28970,7 +28970,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -29039,7 +29039,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -29108,7 +29108,7 @@
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -29181,7 +29181,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -29254,7 +29254,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
@@ -29321,7 +29321,7 @@
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-12-16 12:55:11</t>
+          <t>2022-12-16 20:49:33</t>
         </is>
       </c>
     </row>
